--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyCode1_DetailsPage.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyCode1_DetailsPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1B6EFC-4FF3-4825-928A-A6C6C48A9C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FFA801-5BDD-42C4-A73B-E50D7F8FA718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{46731A91-EED8-4725-96F8-61224B57920A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{46731A91-EED8-4725-96F8-61224B57920A}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>AutoTest</t>
   </si>
   <si>
-    <t>J05</t>
-  </si>
-  <si>
     <t>txt_title</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>dropdown_agency</t>
+  </si>
+  <si>
+    <t>J02 - J02</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F43C0E3-29C0-4C2F-9058-5AC0F515F33E}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -652,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -666,7 +666,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -680,7 +680,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -694,7 +694,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5268B498-48B7-46F8-A119-BD9DB62624B0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -765,7 +765,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>22</v>
